--- a/elektronika/Tabela.xlsx
+++ b/elektronika/Tabela.xlsx
@@ -67,10 +67,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11050114529788337"/>
-          <c:y val="0.10597501351633001"/>
-          <c:w val="0.71281637480552573"/>
-          <c:h val="0.7924012027107955"/>
+          <c:x val="0.11050114529788338"/>
+          <c:y val="0.10597501351633003"/>
+          <c:w val="0.71281637480552562"/>
+          <c:h val="0.79240120271079562"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -79,7 +79,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Ręczny pomiar</c:v>
+            <c:v>Ręczny</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -88,7 +88,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="5"/>
+            <c:size val="9"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -115,13 +115,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -131,7 +131,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Pomiar elektroniczny</c:v>
+            <c:v>Elektroniczny</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -140,8 +140,15 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="plus"/>
-            <c:size val="5"/>
+            <c:size val="9"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="plus"/>
+              <c:size val="11"/>
+            </c:marker>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$A$9:$A$15</c:f>
@@ -167,13 +174,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>20.5</c:v>
+                  <c:v>29.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -192,7 +199,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="triangle"/>
-            <c:size val="4"/>
+            <c:size val="9"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -273,77 +280,77 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>20.5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="19">
                   <c:v>20.3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22.1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22.8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>23.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="88359296"/>
-        <c:axId val="100645504"/>
+        <c:axId val="79436416"/>
+        <c:axId val="79455360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88359296"/>
+        <c:axId val="79436416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -386,12 +393,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100645504"/>
+        <c:crossAx val="79455360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100645504"/>
+        <c:axId val="79455360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -404,13 +411,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1">
+                  <a:defRPr sz="1600" b="1">
                     <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pl-PL" b="1">
+                  <a:rPr lang="pl-PL" sz="1600" b="1">
                     <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
                   </a:rPr>
@@ -419,25 +426,41 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.1301667064528199E-2"/>
+              <c:y val="0.28204917661102241"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88359296"/>
+        <c:crossAx val="79436416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.83548632869983219"/>
+          <c:y val="0.27470818008792131"/>
+          <c:w val="0.11995497979812565"/>
+          <c:h val="0.13929264961266344"/>
+        </c:manualLayout>
+      </c:layout>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr>
+            <a:defRPr sz="1600">
               <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:defRPr>
@@ -450,7 +473,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -462,15 +485,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>609597</xdr:colOff>
+      <xdr:colOff>626917</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>154997</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>207819</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>48491</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -496,12 +519,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.84805</cdr:x>
-      <cdr:y>0.3614</cdr:y>
+      <cdr:x>0.8387</cdr:x>
+      <cdr:y>0.22079</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.95062</cdr:x>
-      <cdr:y>0.42505</cdr:y>
+      <cdr:x>0.94127</cdr:x>
+      <cdr:y>0.28444</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -510,8 +533,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="8505829" y="1676401"/>
-          <a:ext cx="1028700" cy="295275"/>
+          <a:off x="12430321" y="2882463"/>
+          <a:ext cx="1520180" cy="830970"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -522,7 +545,7 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="pl-PL" sz="1100">
+            <a:rPr lang="pl-PL" sz="1600">
               <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
@@ -560,20 +583,20 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="pl-PL" sz="1400" b="1">
+            <a:rPr lang="pl-PL" sz="2000" b="1">
               <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>Przewaga</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pl-PL" sz="1400" b="1" baseline="0">
+            <a:rPr lang="pl-PL" sz="2000" b="1" baseline="0">
               <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t> pomiaru elektronicznego nad ręcznym</a:t>
           </a:r>
-          <a:endParaRPr lang="pl-PL" sz="1400" b="1">
+          <a:endParaRPr lang="pl-PL" sz="2000" b="1">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
             <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
@@ -871,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -882,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -890,7 +913,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -898,7 +921,7 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -906,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>20.5</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -914,7 +937,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -922,7 +945,7 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>24.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -930,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>20.5</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -938,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>20.5</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -946,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>20.3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -954,7 +977,7 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>20.5</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -962,7 +985,7 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>20.7</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -970,7 +993,7 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>20.8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -978,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -986,7 +1009,7 @@
         <v>7</v>
       </c>
       <c r="B24">
-        <v>21.3</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -994,7 +1017,7 @@
         <v>8</v>
       </c>
       <c r="B25">
-        <v>21.5</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1002,7 +1025,7 @@
         <v>9</v>
       </c>
       <c r="B26">
-        <v>21.8</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1010,7 +1033,7 @@
         <v>10</v>
       </c>
       <c r="B27">
-        <v>22</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1018,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="B28">
-        <v>22.2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1026,7 +1049,7 @@
         <v>12</v>
       </c>
       <c r="B29">
-        <v>21</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1034,7 +1057,7 @@
         <v>13</v>
       </c>
       <c r="B30">
-        <v>21.3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1042,7 +1065,7 @@
         <v>14</v>
       </c>
       <c r="B31">
-        <v>22.1</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1050,7 +1073,7 @@
         <v>15</v>
       </c>
       <c r="B32">
-        <v>22.8</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1058,7 +1081,7 @@
         <v>16</v>
       </c>
       <c r="B33">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1066,7 +1089,7 @@
         <v>17</v>
       </c>
       <c r="B34">
-        <v>23.6</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1074,7 +1097,7 @@
         <v>18</v>
       </c>
       <c r="B35">
-        <v>23.6</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1082,7 +1105,7 @@
         <v>19</v>
       </c>
       <c r="B36">
-        <v>24</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1090,10 +1113,13 @@
         <v>20</v>
       </c>
       <c r="B37">
-        <v>24.5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B1:B3">
+    <sortCondition descending="1" ref="B3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
